--- a/biology/Médecine/Charles_Aston_Key/Charles_Aston_Key.xlsx
+++ b/biology/Médecine/Charles_Aston_Key/Charles_Aston_Key.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Aston Key, né en 1793 et mort en 1849, est un chirurgien anglais.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Aston Key naît le 6 octobre 1793 à Southwark[1].
-Élève d'Astley Cooper, il fait avec lui un cours d'anatomie à l'hôpital Saint-Thomas, puis avec Morgan un cours de chirurgie à Guy's Hospital. Son principal ouvrage est : A Short Treatise on the Section of the Prostate Gland in Lithotomy (Londres, 1824)[2].
-Il meurt le 23 août 1849 à Londres[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Aston Key naît le 6 octobre 1793 à Southwark.
+Élève d'Astley Cooper, il fait avec lui un cours d'anatomie à l'hôpital Saint-Thomas, puis avec Morgan un cours de chirurgie à Guy's Hospital. Son principal ouvrage est : A Short Treatise on the Section of the Prostate Gland in Lithotomy (Londres, 1824).
+Il meurt le 23 août 1849 à Londres.
 </t>
         </is>
       </c>
